--- a/ExcelFiles/DungeonInfo.xlsx
+++ b/ExcelFiles/DungeonInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8580"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>int</t>
   </si>
@@ -52,6 +52,15 @@
     <t>reward</t>
   </si>
   <si>
+    <t>posX</t>
+  </si>
+  <si>
+    <t>prefabId</t>
+  </si>
+  <si>
+    <t>playerInitXY</t>
+  </si>
+  <si>
     <t>开始旅程</t>
   </si>
   <si>
@@ -59,6 +68,9 @@
   </si>
   <si>
     <t>1,2,3</t>
+  </si>
+  <si>
+    <t>0:-1.955</t>
   </si>
   <si>
     <t>突出重围</t>
@@ -1041,20 +1053,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="56.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="19.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,8 +1083,17 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1087,56 +1109,83 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/DungeonInfo.xlsx
+++ b/ExcelFiles/DungeonInfo.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>int</t>
   </si>
@@ -37,6 +37,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>json</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -52,15 +55,18 @@
     <t>reward</t>
   </si>
   <si>
-    <t>posX</t>
-  </si>
-  <si>
     <t>prefabId</t>
   </si>
   <si>
     <t>playerInitXY</t>
   </si>
   <si>
+    <t>monsterData</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
     <t>开始旅程</t>
   </si>
   <si>
@@ -70,16 +76,32 @@
     <t>1,2,3</t>
   </si>
   <si>
+    <t>-11:-1.955</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "monsetId":101,
+        "posX":4,
+        "posY":-1.95,
+        "initFaceRight":false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Dungeon_1</t>
+  </si>
+  <si>
+    <t>突出重围</t>
+  </si>
+  <si>
+    <t>深入敌营，这次敌人增加了许多，当然杀敌奖励也会增加！</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
     <t>0:-1.955</t>
-  </si>
-  <si>
-    <t>突出重围</t>
-  </si>
-  <si>
-    <t>深入敌营，这次敌人增加了许多，当然杀敌奖励也会增加！</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
   </si>
   <si>
     <t>木桩罢了</t>
@@ -701,8 +723,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1053,21 +1081,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="56.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="19.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="16.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="19.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="41.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="11.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,105 +1118,123 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="123" customHeight="1" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="115.2" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
+      <c r="I4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/DungeonInfo.xlsx
+++ b/ExcelFiles/DungeonInfo.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>int</t>
   </si>
@@ -37,6 +37,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>json</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>show</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
@@ -70,13 +76,41 @@
     <t>开始旅程</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>哈桑派遣构造体部队搜寻黑卡时遭遇的第一场战斗，敌人透露出非比寻常的气息，恐怕是一场非常艰难的战斗。</t>
   </si>
   <si>
     <t>1,2,3</t>
   </si>
   <si>
-    <t>-11:-1.955</t>
+    <t>-8.7:-1.955</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "monsetId":102,
+        "posX":1,
+        "posY":-1.95,
+        "initFaceRight":false
+    }
+}</t>
+  </si>
+  <si>
+    <t>Dungeon_1</t>
+  </si>
+  <si>
+    <t>突出重围</t>
+  </si>
+  <si>
+    <t>深入敌营，这次敌人增加了许多，当然杀敌奖励也会增加！</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <t>0:-1.955</t>
   </si>
   <si>
     <t>{
@@ -89,25 +123,29 @@
 }</t>
   </si>
   <si>
-    <t>Dungeon_1</t>
-  </si>
-  <si>
-    <t>突出重围</t>
-  </si>
-  <si>
-    <t>深入敌营，这次敌人增加了许多，当然杀敌奖励也会增加！</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
-  </si>
-  <si>
-    <t>0:-1.955</t>
-  </si>
-  <si>
     <t>木桩罢了</t>
   </si>
   <si>
     <t>这家伙在BOSS的位置但完全没有BOSS的战斗力呀，毕竟是黄金时代的机械了。</t>
+  </si>
+  <si>
+    <t>模拟战斗演练</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>空中花园搭建的模拟战斗空间，构造体可以从中选择目标进行仿真战斗。</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "monsetId":101,
+        "posX":5.5,
+        "posY":-1.95,
+        "initFaceRight":false
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -723,15 +761,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1081,24 +1122,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="56.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="19.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="41.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="11.5555555555556" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="56.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="16.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="19.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="41.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="11.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1106,135 +1147,179 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
       <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" ht="123" customHeight="1" spans="1:9">
+    <row r="3" ht="123" customHeight="1" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" ht="115.2" spans="1:9">
+    <row r="4" ht="115.2" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="92" customHeight="1" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
         <v>20</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
